--- a/Steam_all_premium_games_detailed_edited.xlsx
+++ b/Steam_all_premium_games_detailed_edited.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Sub-Genre</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Narration</t>
-  </si>
-  <si>
-    <t>Narrative</t>
   </si>
   <si>
     <t>Open World</t>
@@ -872,14 +869,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1440,13 +1434,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="C2">
-        <v>29304.79</v>
+        <v>29333.883126935</v>
       </c>
       <c r="D2">
-        <v>38096227</v>
+        <v>37899377</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1454,13 +1448,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C3">
-        <v>393989.142531357</v>
+        <v>398515.905420992</v>
       </c>
       <c r="D3">
-        <v>345528478</v>
+        <v>345513290</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1468,13 +1462,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>2766414.89552239</v>
+        <v>2807798.53030303</v>
       </c>
       <c r="D4">
-        <v>370699596</v>
+        <v>370629406</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1482,13 +1476,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="C5">
-        <v>877345.612159329</v>
+        <v>874631.286170213</v>
       </c>
       <c r="D5">
-        <v>836987714</v>
+        <v>822153409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1496,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2102</v>
+        <v>2078</v>
       </c>
       <c r="C6">
-        <v>228181.099904853</v>
+        <v>229739.615976901</v>
       </c>
       <c r="D6">
-        <v>479636672</v>
+        <v>477398922</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1510,13 +1504,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4170</v>
+        <v>4147</v>
       </c>
       <c r="C7">
-        <v>35877.5165467626</v>
+        <v>36033.3484446588</v>
       </c>
       <c r="D7">
-        <v>149609244</v>
+        <v>149430296</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1524,13 +1518,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8">
-        <v>1157645.65258216</v>
+        <v>1168597.08056872</v>
       </c>
       <c r="D8">
-        <v>246578524</v>
+        <v>246573984</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1538,13 +1532,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9">
-        <v>38096.5925925926</v>
+        <v>38558.6981132075</v>
       </c>
       <c r="D9">
-        <v>4114432</v>
+        <v>4087222</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1552,13 +1546,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C10">
-        <v>1846025.01092896</v>
+        <v>1876033.43103448</v>
       </c>
       <c r="D10">
-        <v>337822577</v>
+        <v>326429817</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1566,13 +1560,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C11">
-        <v>133001.727799228</v>
+        <v>134268.801169591</v>
       </c>
       <c r="D11">
-        <v>68894895</v>
+        <v>68879895</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1580,13 +1574,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C12">
-        <v>805670.855696203</v>
+        <v>823622.592207792</v>
       </c>
       <c r="D12">
-        <v>318239988</v>
+        <v>317094698</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1594,13 +1588,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C13">
-        <v>263914.575208914</v>
+        <v>265358.47826087</v>
       </c>
       <c r="D13">
-        <v>189490665</v>
+        <v>189200595</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1608,13 +1602,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C14">
-        <v>952229.391304348</v>
+        <v>946256.842364532</v>
       </c>
       <c r="D14">
-        <v>394222968</v>
+        <v>384180278</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1622,13 +1616,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C15">
-        <v>23845.2357320099</v>
+        <v>23949.0598503741</v>
       </c>
       <c r="D15">
-        <v>9609630</v>
+        <v>9603573</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1636,13 +1630,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16">
-        <v>1260149.07189542</v>
+        <v>1282165.38666667</v>
       </c>
       <c r="D16">
-        <v>192802808</v>
+        <v>192324808</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1650,13 +1644,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17">
-        <v>288839.084210526</v>
+        <v>286663.62962963</v>
       </c>
       <c r="D17">
-        <v>54879426</v>
+        <v>54179426</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1664,13 +1658,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18">
-        <v>191589.347560976</v>
+        <v>191838.856269113</v>
       </c>
       <c r="D18">
-        <v>62841306</v>
+        <v>62731306</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1678,13 +1672,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19">
-        <v>638378.06557377</v>
+        <v>640807.604938272</v>
       </c>
       <c r="D19">
-        <v>155764248</v>
+        <v>155716248</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1692,13 +1686,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C20">
-        <v>1250999.30855019</v>
+        <v>1256275.01509434</v>
       </c>
       <c r="D20">
-        <v>673037628</v>
+        <v>665825758</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1706,13 +1700,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C21">
-        <v>179066.001788909</v>
+        <v>181015.412727273</v>
       </c>
       <c r="D21">
-        <v>100097895</v>
+        <v>99558477</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1748,10 +1742,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C24">
-        <v>1626389.97481108</v>
+        <v>1630497.02020202</v>
       </c>
       <c r="D24">
         <v>645676820</v>
@@ -1762,13 +1756,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C25">
-        <v>330305.718052738</v>
+        <v>333549.81352459</v>
       </c>
       <c r="D25">
-        <v>162840719</v>
+        <v>162772309</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1776,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1644</v>
+        <v>1620</v>
       </c>
       <c r="C26">
-        <v>1660121.53284672</v>
+        <v>1481987.51851852</v>
       </c>
       <c r="D26">
-        <v>2729239800</v>
+        <v>2400819780</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1790,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C27">
-        <v>2498172.02840909</v>
+        <v>2569691.12280702</v>
       </c>
       <c r="D27">
-        <v>439678277</v>
+        <v>439417182</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1804,13 +1798,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C28">
-        <v>1545416.93174603</v>
+        <v>1567348.72302738</v>
       </c>
       <c r="D28">
-        <v>973612667</v>
+        <v>973323557</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1818,13 +1812,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2479</v>
+        <v>2454</v>
       </c>
       <c r="C29">
-        <v>522900.335215813</v>
+        <v>519682.100244499</v>
       </c>
       <c r="D29">
-        <v>1296269931</v>
+        <v>1275299874</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1832,13 +1826,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C30">
-        <v>26772.9482071713</v>
+        <v>26980.8064516129</v>
       </c>
       <c r="D30">
-        <v>6720010</v>
+        <v>6691240</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1846,13 +1840,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C31">
-        <v>579632.934805468</v>
+        <v>583159.228571429</v>
       </c>
       <c r="D31">
-        <v>551230921</v>
+        <v>551085471</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1860,13 +1854,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C32">
-        <v>620014.877419355</v>
+        <v>610036.925438597</v>
       </c>
       <c r="D32">
-        <v>288306918</v>
+        <v>278176838</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1874,13 +1868,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33">
-        <v>116890.515923567</v>
+        <v>118261.103225806</v>
       </c>
       <c r="D33">
-        <v>18351811</v>
+        <v>18330471</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1916,13 +1910,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C36">
-        <v>981708.695710456</v>
+        <v>998044.702592087</v>
       </c>
       <c r="D36">
-        <v>732354687</v>
+        <v>731566767</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1944,13 +1938,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C38">
-        <v>787994.093959732</v>
+        <v>791445.752808989</v>
       </c>
       <c r="D38">
-        <v>352233360</v>
+        <v>352193360</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1972,13 +1966,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C40">
-        <v>844492.344827586</v>
+        <v>833210.136054422</v>
       </c>
       <c r="D40">
-        <v>122451390</v>
+        <v>122481890</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1986,13 +1980,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>988</v>
       </c>
       <c r="C41">
-        <v>16500</v>
+        <v>8110555.28340081</v>
       </c>
       <c r="D41">
-        <v>49500</v>
+        <v>8013228620</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2000,13 +1994,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>997</v>
+        <v>176</v>
       </c>
       <c r="C42">
-        <v>8062560.06820461</v>
+        <v>17355337.5568182</v>
       </c>
       <c r="D42">
-        <v>8038372388</v>
+        <v>3054539410</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2014,13 +2008,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>14343033.1927711</v>
+        <v>281058.946902655</v>
       </c>
       <c r="D43">
-        <v>2380943510</v>
+        <v>31759661</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2028,13 +2022,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>2654</v>
       </c>
       <c r="C44">
-        <v>271504.709401709</v>
+        <v>126246.244159759</v>
       </c>
       <c r="D44">
-        <v>31766051</v>
+        <v>335057532</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2042,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>2665</v>
+        <v>1673</v>
       </c>
       <c r="C45">
-        <v>125748.874296435</v>
+        <v>91067.8529587567</v>
       </c>
       <c r="D45">
-        <v>335120750</v>
+        <v>152356518</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2056,13 +2050,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1675</v>
+        <v>6122</v>
       </c>
       <c r="C46">
-        <v>90959.4137313433</v>
+        <v>57269.0364260046</v>
       </c>
       <c r="D46">
-        <v>152357018</v>
+        <v>350601041</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2070,13 +2064,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6139</v>
+        <v>157</v>
       </c>
       <c r="C47">
-        <v>57114.5543248086</v>
+        <v>59005.949044586</v>
       </c>
       <c r="D47">
-        <v>350626249</v>
+        <v>9263934</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2084,13 +2078,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>159</v>
+        <v>1619</v>
       </c>
       <c r="C48">
-        <v>58496.4402515723</v>
+        <v>331626.997529339</v>
       </c>
       <c r="D48">
-        <v>9300934</v>
+        <v>536904109</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2098,13 +2092,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>1661</v>
+        <v>275</v>
       </c>
       <c r="C49">
-        <v>325310.190246839</v>
+        <v>67132.2618181818</v>
       </c>
       <c r="D49">
-        <v>540340226</v>
+        <v>18461372</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2112,13 +2106,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>276</v>
+        <v>593</v>
       </c>
       <c r="C50">
-        <v>67222.3623188406</v>
+        <v>756595.625632378</v>
       </c>
       <c r="D50">
-        <v>18553372</v>
+        <v>448661206</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2126,13 +2120,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>597</v>
+        <v>801</v>
       </c>
       <c r="C51">
-        <v>760182.924623116</v>
+        <v>832108.828963795</v>
       </c>
       <c r="D51">
-        <v>453829206</v>
+        <v>666519172</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2140,13 +2134,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>821</v>
+        <v>1712</v>
       </c>
       <c r="C52">
-        <v>814026.157125457</v>
+        <v>99153.7394859813</v>
       </c>
       <c r="D52">
-        <v>668315475</v>
+        <v>169751202</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2154,13 +2148,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>1717</v>
+        <v>941</v>
       </c>
       <c r="C53">
-        <v>98990.0302853815</v>
+        <v>58605.8820403826</v>
       </c>
       <c r="D53">
-        <v>169965882</v>
+        <v>55148135</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2168,13 +2162,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>948</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>58239.7626582279</v>
+        <v>1372714.68085106</v>
       </c>
       <c r="D54">
-        <v>55211295</v>
+        <v>64517590</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2182,13 +2176,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="C55">
-        <v>1372714.68085106</v>
+        <v>1265250.95588235</v>
       </c>
       <c r="D55">
-        <v>64517590</v>
+        <v>430185325</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2196,13 +2190,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>342</v>
+        <v>957</v>
       </c>
       <c r="C56">
-        <v>1257856.0380117</v>
+        <v>357363.990595611</v>
       </c>
       <c r="D56">
-        <v>430186765</v>
+        <v>341997339</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2210,13 +2204,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>982</v>
+        <v>365</v>
       </c>
       <c r="C57">
-        <v>1121069.13034623</v>
+        <v>57644.0767123288</v>
       </c>
       <c r="D57">
-        <v>1100889886</v>
+        <v>21040088</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2224,13 +2218,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C58">
-        <v>57209.9403794038</v>
+        <v>672697.505119454</v>
       </c>
       <c r="D58">
-        <v>21110468</v>
+        <v>197100369</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2238,13 +2232,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="C59">
-        <v>666301.922297297</v>
+        <v>2053486.45511482</v>
       </c>
       <c r="D59">
-        <v>197225369</v>
+        <v>983620012</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2252,13 +2246,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>484</v>
+        <v>929</v>
       </c>
       <c r="C60">
-        <v>2032367.3285124</v>
+        <v>146616.201291712</v>
       </c>
       <c r="D60">
-        <v>983665787</v>
+        <v>136206451</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2266,13 +2260,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>940</v>
+        <v>455</v>
       </c>
       <c r="C61">
-        <v>144959.967021277</v>
+        <v>2460501.55164835</v>
       </c>
       <c r="D61">
-        <v>136262369</v>
+        <v>1119528206</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2280,13 +2274,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>458</v>
+        <v>655</v>
       </c>
       <c r="C62">
-        <v>2164509.59825328</v>
+        <v>737811.732824427</v>
       </c>
       <c r="D62">
-        <v>991345396</v>
+        <v>483266685</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2294,13 +2288,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>667</v>
+        <v>2167</v>
       </c>
       <c r="C63">
-        <v>921058.655172414</v>
+        <v>109662.451315182</v>
       </c>
       <c r="D63">
-        <v>614346123</v>
+        <v>237638532</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2308,13 +2302,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>2173</v>
+        <v>3056</v>
       </c>
       <c r="C64">
-        <v>109547.934652554</v>
+        <v>111606.179973822</v>
       </c>
       <c r="D64">
-        <v>238047662</v>
+        <v>341068486</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2322,27 +2316,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>3084</v>
+        <v>644</v>
       </c>
       <c r="C65">
-        <v>111046.323605707</v>
+        <v>160653.962732919</v>
       </c>
       <c r="D65">
-        <v>342466862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="2">
-        <v>647</v>
-      </c>
-      <c r="C66" s="2">
-        <v>159929.292117465</v>
-      </c>
-      <c r="D66" s="2">
-        <v>103474252</v>
+        <v>103461152</v>
       </c>
     </row>
   </sheetData>
